--- a/Input/Takaful_Mednet/rateSheet1.xlsx
+++ b/Input/Takaful_Mednet/rateSheet1.xlsx
@@ -11,9 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$1297</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$1297</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -54,7 +53,7 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">relation</t>
+    <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">currency</t>
@@ -156,7 +155,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,13 +176,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -251,7 +243,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,13 +269,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,23 +291,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,23 +303,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -408,7 +395,7 @@
   <dimension ref="A1:K1297"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1302" activeCellId="0" sqref="H1302"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45821,7 +45808,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1297"/>
+  <autoFilter ref="A1:J1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
